--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6FD3C9-47BA-4AC2-9EBC-5654BAFD2F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E1185E-A9C3-48E6-A92F-D222A1AFB42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>4hr20min</t>
+  </si>
+  <si>
+    <t>3hr00min</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
   <dimension ref="D2:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,6 +454,27 @@
       <c r="D4">
         <v>2</v>
       </c>
+      <c r="E4" s="1">
+        <v>45611</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E1185E-A9C3-48E6-A92F-D222A1AFB42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2943E707-AD3A-4986-B1E7-7FB30725BA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>3hr00min</t>
+  </si>
+  <si>
+    <t>4hr00min</t>
+  </si>
+  <si>
+    <t>6hr00min</t>
   </si>
 </sst>
 </file>
@@ -385,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K4"/>
+  <dimension ref="D2:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,6 +482,58 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45612</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45247</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2943E707-AD3A-4986-B1E7-7FB30725BA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B0FDB5-B55F-4368-A5B4-B900574AD5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K6"/>
+  <dimension ref="D2:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,6 +534,187 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45614</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45615</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45616</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45617</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45618</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45619</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
+        <v>45620</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E14" s="1">
+        <v>45621</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B0FDB5-B55F-4368-A5B4-B900574AD5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AE71C9-99A1-49CE-BAF0-8F124940B831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>6hr00min</t>
+  </si>
+  <si>
+    <t>2hr00min</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K14"/>
+  <dimension ref="D2:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,6 +570,9 @@
       <c r="E8" s="1">
         <v>45615</v>
       </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
@@ -688,6 +694,9 @@
       </c>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>11</v>
+      </c>
       <c r="E13" s="1">
         <v>45620</v>
       </c>
@@ -711,8 +720,237 @@
       </c>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>12</v>
+      </c>
       <c r="E14" s="1">
         <v>45621</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45622</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45623</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45624</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45625</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45626</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45627</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45628</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45629</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AE71C9-99A1-49CE-BAF0-8F124940B831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADED531-35D1-4748-9393-88D50EBAE0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>2hr00min</t>
+  </si>
+  <si>
+    <t>2hr50min</t>
+  </si>
+  <si>
+    <t>0hr30min</t>
+  </si>
+  <si>
+    <t>3hr20min</t>
   </si>
 </sst>
 </file>
@@ -394,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K22"/>
+  <dimension ref="D2:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,6 +962,32 @@
         <v>16</v>
       </c>
     </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45264</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADED531-35D1-4748-9393-88D50EBAE0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8070A7DD-D395-4EBA-B78D-34FD3CCB2F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>3hr20min</t>
+  </si>
+  <si>
+    <t>0hr45min</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K23"/>
+  <dimension ref="D2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,7 +970,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="1">
-        <v>45264</v>
+        <v>45630</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -986,6 +989,58 @@
       </c>
       <c r="K23" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45631</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45632</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8070A7DD-D395-4EBA-B78D-34FD3CCB2F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814F9651-0E2B-4A72-A1D6-EB48119E3BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>0hr45min</t>
+  </si>
+  <si>
+    <t>1hr23min</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K25"/>
+  <dimension ref="D2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,6 +1046,32 @@
         <v>8</v>
       </c>
     </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45633</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814F9651-0E2B-4A72-A1D6-EB48119E3BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22ABDF1-CCB7-49FA-916F-82E72CAA8CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -91,6 +91,27 @@
   </si>
   <si>
     <t>1hr23min</t>
+  </si>
+  <si>
+    <t>1hr15min</t>
+  </si>
+  <si>
+    <t>0hr20min</t>
+  </si>
+  <si>
+    <t>1hr35min</t>
+  </si>
+  <si>
+    <t>0hr43min</t>
+  </si>
+  <si>
+    <t>0hr00mni</t>
+  </si>
+  <si>
+    <t>1hr08min</t>
+  </si>
+  <si>
+    <t>1hr51min</t>
   </si>
 </sst>
 </file>
@@ -409,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K26"/>
+  <dimension ref="D2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1072,6 +1093,58 @@
         <v>21</v>
       </c>
     </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45634</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45635</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22ABDF1-CCB7-49FA-916F-82E72CAA8CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DA6B80-88F5-4D63-A1FC-C4EC39E8029C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>1hr51min</t>
+  </si>
+  <si>
+    <t>5hr30min</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K28"/>
+  <dimension ref="D2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,6 +1148,32 @@
         <v>28</v>
       </c>
     </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45636</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DA6B80-88F5-4D63-A1FC-C4EC39E8029C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60F78B1-3180-4942-9C09-CC61E0CC7893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>5hr30min</t>
+  </si>
+  <si>
+    <t>0hr46min</t>
+  </si>
+  <si>
+    <t>1hr32min</t>
   </si>
 </sst>
 </file>
@@ -433,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K29"/>
+  <dimension ref="D2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1174,6 +1180,32 @@
         <v>29</v>
       </c>
     </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45637</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60F78B1-3180-4942-9C09-CC61E0CC7893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F29DC-16A2-4DCA-B86D-8A875A8AD538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K30"/>
+  <dimension ref="D2:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1206,6 +1206,66 @@
         <v>31</v>
       </c>
     </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45638</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45639</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45640</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F29DC-16A2-4DCA-B86D-8A875A8AD538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB5850D-E15C-4F6F-8367-551828316B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>1hr32min</t>
+  </si>
+  <si>
+    <t>4hr35min</t>
+  </si>
+  <si>
+    <t>5hr50min</t>
   </si>
 </sst>
 </file>
@@ -441,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,12 +1264,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33">
         <v>31</v>
       </c>
       <c r="E33" s="1">
         <v>45640</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB5850D-E15C-4F6F-8367-551828316B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F22A7A-9FE2-4FF2-A4CF-642889F7431C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>5hr50min</t>
+  </si>
+  <si>
+    <t>4hr25min</t>
+  </si>
+  <si>
+    <t>5hr10min</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K33"/>
+  <dimension ref="D2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1290,6 +1296,32 @@
         <v>33</v>
       </c>
     </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45275</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F22A7A-9FE2-4FF2-A4CF-642889F7431C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1037F3-6246-4403-9D22-090F40A24C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>5hr10min</t>
+  </si>
+  <si>
+    <t>1hr25min</t>
+  </si>
+  <si>
+    <t>5hr00min</t>
+  </si>
+  <si>
+    <t>6hr25min</t>
   </si>
 </sst>
 </file>
@@ -451,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K34"/>
+  <dimension ref="D2:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1322,6 +1331,32 @@
         <v>35</v>
       </c>
     </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45642</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1037F3-6246-4403-9D22-090F40A24C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4A73BC-7D31-42AD-804D-C103C191C080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>6hr25min</t>
+  </si>
+  <si>
+    <t>1hr19min</t>
+  </si>
+  <si>
+    <t>1hr47min</t>
+  </si>
+  <si>
+    <t>3hr02min</t>
   </si>
 </sst>
 </file>
@@ -460,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K35"/>
+  <dimension ref="D2:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,6 +1366,58 @@
         <v>38</v>
       </c>
     </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45643</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45644</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4A73BC-7D31-42AD-804D-C103C191C080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C953F6F-7AB1-4A90-A463-2B417DCD398F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K37"/>
+  <dimension ref="D2:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1418,6 +1418,32 @@
         <v>37</v>
       </c>
     </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45645</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C953F6F-7AB1-4A90-A463-2B417DCD398F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40DDDD0-AF4F-48B4-88E7-D1D537872FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K38"/>
+  <dimension ref="D2:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1444,6 +1444,32 @@
         <v>13</v>
       </c>
     </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45646</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40DDDD0-AF4F-48B4-88E7-D1D537872FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319B81AE-0720-4934-B8DC-515D4D5A3B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K39"/>
+  <dimension ref="D2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1470,6 +1470,32 @@
         <v>8</v>
       </c>
     </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45647</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siser\Documents\Authence\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319B81AE-0720-4934-B8DC-515D4D5A3B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED9A118-881E-45D6-A269-C10E06185458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -63,9 +72,6 @@
     <t>0hr00min</t>
   </si>
   <si>
-    <t>4hr20min</t>
-  </si>
-  <si>
     <t>3hr00min</t>
   </si>
   <si>
@@ -84,9 +90,6 @@
     <t>0hr30min</t>
   </si>
   <si>
-    <t>3hr20min</t>
-  </si>
-  <si>
     <t>0hr45min</t>
   </si>
   <si>
@@ -99,9 +102,6 @@
     <t>0hr20min</t>
   </si>
   <si>
-    <t>1hr35min</t>
-  </si>
-  <si>
     <t>0hr43min</t>
   </si>
   <si>
@@ -111,46 +111,34 @@
     <t>1hr08min</t>
   </si>
   <si>
-    <t>1hr51min</t>
-  </si>
-  <si>
-    <t>5hr30min</t>
-  </si>
-  <si>
     <t>0hr46min</t>
   </si>
   <si>
-    <t>1hr32min</t>
-  </si>
-  <si>
     <t>4hr35min</t>
   </si>
   <si>
-    <t>5hr50min</t>
-  </si>
-  <si>
     <t>4hr25min</t>
   </si>
   <si>
-    <t>5hr10min</t>
-  </si>
-  <si>
     <t>1hr25min</t>
   </si>
   <si>
     <t>5hr00min</t>
   </si>
   <si>
-    <t>6hr25min</t>
-  </si>
-  <si>
     <t>1hr19min</t>
   </si>
   <si>
     <t>1hr47min</t>
   </si>
   <si>
-    <t>3hr02min</t>
+    <t>0hr36min</t>
+  </si>
+  <si>
+    <t>3hr12min</t>
+  </si>
+  <si>
+    <t>1hr36min</t>
   </si>
 </sst>
 </file>
@@ -204,6 +192,990 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45393744531933511"/>
+          <c:y val="6.0185185185185182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7164041994750651E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.91343110236220471"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1E7-45CE-8CFA-F5F621FAF39B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="724490096"/>
+        <c:axId val="724491056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="724490096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="724491056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="724491056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="724490096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80FC47F9-209E-6D69-B8E5-3177D0C3F7CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K40"/>
+  <dimension ref="D2:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,8 +1502,8 @@
       <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
-        <v>12</v>
+      <c r="K3">
+        <v>4.2</v>
       </c>
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.3">
@@ -542,7 +1514,7 @@
         <v>45611</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -556,8 +1528,8 @@
       <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
-        <v>13</v>
+      <c r="K4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.3">
@@ -574,7 +1546,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -582,8 +1554,8 @@
       <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
-        <v>14</v>
+      <c r="K5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.3">
@@ -600,7 +1572,7 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -608,8 +1580,8 @@
       <c r="J6" t="s">
         <v>11</v>
       </c>
-      <c r="K6" t="s">
-        <v>15</v>
+      <c r="K6">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.3">
@@ -626,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -634,8 +1606,8 @@
       <c r="J7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" t="s">
-        <v>14</v>
+      <c r="K7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.3">
@@ -652,7 +1624,7 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -660,8 +1632,8 @@
       <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" t="s">
-        <v>14</v>
+      <c r="K8">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.3">
@@ -686,8 +1658,8 @@
       <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" t="s">
-        <v>11</v>
+      <c r="K9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.3">
@@ -712,8 +1684,8 @@
       <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="K10" t="s">
-        <v>11</v>
+      <c r="K10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.3">
@@ -738,8 +1710,8 @@
       <c r="J11" t="s">
         <v>11</v>
       </c>
-      <c r="K11" t="s">
-        <v>11</v>
+      <c r="K11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.3">
@@ -764,8 +1736,8 @@
       <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="K12" t="s">
-        <v>11</v>
+      <c r="K12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.3">
@@ -790,8 +1762,8 @@
       <c r="J13" t="s">
         <v>11</v>
       </c>
-      <c r="K13" t="s">
-        <v>11</v>
+      <c r="K13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.3">
@@ -816,8 +1788,8 @@
       <c r="J14" t="s">
         <v>11</v>
       </c>
-      <c r="K14" t="s">
-        <v>11</v>
+      <c r="K14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.3">
@@ -842,8 +1814,8 @@
       <c r="J15" t="s">
         <v>11</v>
       </c>
-      <c r="K15" t="s">
-        <v>11</v>
+      <c r="K15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.3">
@@ -868,8 +1840,8 @@
       <c r="J16" t="s">
         <v>11</v>
       </c>
-      <c r="K16" t="s">
-        <v>11</v>
+      <c r="K16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.3">
@@ -894,8 +1866,8 @@
       <c r="J17" t="s">
         <v>11</v>
       </c>
-      <c r="K17" t="s">
-        <v>11</v>
+      <c r="K17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.3">
@@ -920,8 +1892,8 @@
       <c r="J18" t="s">
         <v>11</v>
       </c>
-      <c r="K18" t="s">
-        <v>11</v>
+      <c r="K18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.3">
@@ -946,8 +1918,8 @@
       <c r="J19" t="s">
         <v>11</v>
       </c>
-      <c r="K19" t="s">
-        <v>11</v>
+      <c r="K19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.3">
@@ -972,8 +1944,8 @@
       <c r="J20" t="s">
         <v>11</v>
       </c>
-      <c r="K20" t="s">
-        <v>11</v>
+      <c r="K20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.3">
@@ -998,8 +1970,8 @@
       <c r="J21" t="s">
         <v>11</v>
       </c>
-      <c r="K21" t="s">
-        <v>11</v>
+      <c r="K21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.3">
@@ -1010,7 +1982,7 @@
         <v>45629</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -1024,8 +1996,8 @@
       <c r="J22" t="s">
         <v>11</v>
       </c>
-      <c r="K22" t="s">
-        <v>16</v>
+      <c r="K22">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.3">
@@ -1036,22 +2008,22 @@
         <v>45630</v>
       </c>
       <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
         <v>17</v>
       </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" t="s">
-        <v>18</v>
-      </c>
       <c r="I23" t="s">
         <v>11</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
       </c>
-      <c r="K23" t="s">
-        <v>19</v>
+      <c r="K23">
+        <v>3.2</v>
       </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.3">
@@ -1068,7 +2040,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
@@ -1076,8 +2048,8 @@
       <c r="J24" t="s">
         <v>11</v>
       </c>
-      <c r="K24" t="s">
-        <v>20</v>
+      <c r="K24">
+        <v>0.45</v>
       </c>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.3">
@@ -1102,8 +2074,8 @@
       <c r="J25" t="s">
         <v>11</v>
       </c>
-      <c r="K25" t="s">
-        <v>8</v>
+      <c r="K25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.3">
@@ -1114,7 +2086,7 @@
         <v>45633</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
@@ -1128,8 +2100,8 @@
       <c r="J26" t="s">
         <v>11</v>
       </c>
-      <c r="K26" t="s">
-        <v>21</v>
+      <c r="K26">
+        <v>1.23</v>
       </c>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.3">
@@ -1140,13 +2112,13 @@
         <v>45634</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -1154,8 +2126,8 @@
       <c r="J27" t="s">
         <v>11</v>
       </c>
-      <c r="K27" t="s">
-        <v>24</v>
+      <c r="K27">
+        <v>1.35</v>
       </c>
     </row>
     <row r="28" spans="4:11" x14ac:dyDescent="0.3">
@@ -1166,13 +2138,13 @@
         <v>45635</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1180,8 +2152,8 @@
       <c r="J28" t="s">
         <v>11</v>
       </c>
-      <c r="K28" t="s">
-        <v>28</v>
+      <c r="K28">
+        <v>1.51</v>
       </c>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.3">
@@ -1192,7 +2164,7 @@
         <v>45636</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -1206,8 +2178,8 @@
       <c r="J29" t="s">
         <v>11</v>
       </c>
-      <c r="K29" t="s">
-        <v>29</v>
+      <c r="K29">
+        <v>5.3</v>
       </c>
     </row>
     <row r="30" spans="4:11" x14ac:dyDescent="0.3">
@@ -1218,10 +2190,10 @@
         <v>45637</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
@@ -1232,8 +2204,8 @@
       <c r="J30" t="s">
         <v>11</v>
       </c>
-      <c r="K30" t="s">
-        <v>31</v>
+      <c r="K30">
+        <v>1.32</v>
       </c>
     </row>
     <row r="31" spans="4:11" x14ac:dyDescent="0.3">
@@ -1253,13 +2225,13 @@
         <v>11</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
       </c>
-      <c r="K31" t="s">
-        <v>16</v>
+      <c r="K31">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="4:11" x14ac:dyDescent="0.3">
@@ -1279,13 +2251,13 @@
         <v>11</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
       </c>
-      <c r="K32" t="s">
-        <v>13</v>
+      <c r="K32">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.3">
@@ -1302,16 +2274,16 @@
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
       </c>
-      <c r="K33" t="s">
-        <v>33</v>
+      <c r="K33">
+        <v>5.5</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.3">
@@ -1328,16 +2300,16 @@
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
       </c>
-      <c r="K34" t="s">
-        <v>35</v>
+      <c r="K34">
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.3">
@@ -1354,16 +2326,16 @@
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I35" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
       </c>
-      <c r="K35" t="s">
-        <v>38</v>
+      <c r="K35">
+        <v>6.25</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.3">
@@ -1380,16 +2352,16 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
       </c>
-      <c r="K36" t="s">
-        <v>41</v>
+      <c r="K36">
+        <v>3.02</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
@@ -1409,13 +2381,13 @@
         <v>11</v>
       </c>
       <c r="I37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
       </c>
-      <c r="K37" t="s">
-        <v>37</v>
+      <c r="K37">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.3">
@@ -1435,13 +2407,13 @@
         <v>11</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J38" t="s">
         <v>8</v>
       </c>
-      <c r="K38" t="s">
-        <v>13</v>
+      <c r="K38">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.3">
@@ -1466,8 +2438,8 @@
       <c r="J39" t="s">
         <v>11</v>
       </c>
-      <c r="K39" t="s">
-        <v>8</v>
+      <c r="K39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.3">
@@ -1492,11 +2464,234 @@
       <c r="J40" t="s">
         <v>11</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45648</v>
+      </c>
+      <c r="F41" t="s">
         <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45649</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45650</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45651</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45652</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45653</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45654</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45655</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="K50">
+        <f>AVERAGE(K3:K46)</f>
+        <v>1.8961363636363635</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>